--- a/Excel_ASSIGNMENTS/VLOOKUP 1 (1).xlsx
+++ b/Excel_ASSIGNMENTS/VLOOKUP 1 (1).xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1130,8 @@
         <v>30</v>
       </c>
       <c r="C32" s="13">
-        <f t="shared" ref="C32:C33" si="1">VLOOKUP(C8,C5:F16,3,FALSE)</f>
-        <v>19327</v>
+        <f>VLOOKUP(B32,C4:F15,3,TRUE)</f>
+        <v>13836</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1146,8 +1146,8 @@
         <v>23</v>
       </c>
       <c r="C33" s="13">
-        <f t="shared" si="1"/>
-        <v>18996</v>
+        <f>VLOOKUP(B33,C4:F15,3,FALSE)</f>
+        <v>10959</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
